--- a/Sura/DataSource - ValidaFormularios - Cotizada.xlsx
+++ b/Sura/DataSource - ValidaFormularios - Cotizada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2762EE-641D-4C31-9A02-B74F639B83F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FE526C-F996-4D8B-A307-1BE47E7B6F6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>NumSolicitudPoliza</t>
   </si>
   <si>
-    <t>0000305691</t>
+    <t>0014885217</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sura/DataSource - ValidaFormularios - Cotizada.xlsx
+++ b/Sura/DataSource - ValidaFormularios - Cotizada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FE526C-F996-4D8B-A307-1BE47E7B6F6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622887EF-6F3D-40B9-87F2-E1BA4E30D774}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>NumSolicitudPoliza</t>
   </si>
   <si>
-    <t>0014885217</t>
+    <t>0019582902</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
